--- a/data/output/FV2304_FV2210/UTILMD/11186.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11186.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9058" uniqueCount="448">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9079" uniqueCount="448">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1517,6 +1517,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U414" totalsRowShown="0">
+  <autoFilter ref="A1:U414"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1806,7 +1836,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20935,5 +20968,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11186.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11186.xlsx
@@ -3152,7 +3152,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5134,7 +5134,7 @@
         <v>405</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5342,7 +5342,7 @@
         <v>407</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5550,7 +5550,7 @@
         <v>408</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5870,7 +5870,7 @@
         <v>410</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -6022,7 +6022,7 @@
         <v>411</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6406,7 +6406,7 @@
         <v>410</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6598,7 +6598,7 @@
         <v>414</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6886,7 +6886,7 @@
         <v>416</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7360,7 +7360,7 @@
         <v>420</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -7606,7 +7606,7 @@
         <v>410</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7856,7 +7856,7 @@
         <v>410</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7996,7 +7996,7 @@
         <v>422</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -8150,7 +8150,7 @@
         <v>424</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8304,7 +8304,7 @@
         <v>422</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -8454,7 +8454,7 @@
         <v>426</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8602,7 +8602,7 @@
         <v>410</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8794,7 +8794,7 @@
         <v>427</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8986,7 +8986,7 @@
         <v>410</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -9178,7 +9178,7 @@
         <v>428</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -9470,7 +9470,7 @@
         <v>410</v>
       </c>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -9872,7 +9872,7 @@
         <v>429</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -10082,7 +10082,7 @@
         <v>410</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -10332,7 +10332,7 @@
         <v>410</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10530,7 +10530,7 @@
         <v>431</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -10736,7 +10736,7 @@
         <v>432</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10876,7 +10876,7 @@
         <v>406</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -11028,7 +11028,7 @@
         <v>433</v>
       </c>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -11494,7 +11494,7 @@
         <v>433</v>
       </c>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11744,7 +11744,7 @@
         <v>410</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -11936,7 +11936,7 @@
         <v>433</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -12128,7 +12128,7 @@
         <v>410</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -12320,7 +12320,7 @@
         <v>410</v>
       </c>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -12608,7 +12608,7 @@
         <v>410</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -13010,7 +13010,7 @@
         <v>429</v>
       </c>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -13216,7 +13216,7 @@
         <v>410</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -13466,7 +13466,7 @@
         <v>410</v>
       </c>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -13668,7 +13668,7 @@
         <v>431</v>
       </c>
       <c r="L214" s="4"/>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -13874,7 +13874,7 @@
         <v>435</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="K221" s="2"/>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -14164,7 +14164,7 @@
         <v>406</v>
       </c>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -14370,7 +14370,7 @@
         <v>410</v>
       </c>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -14514,7 +14514,7 @@
         <v>410</v>
       </c>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -14612,7 +14612,7 @@
         <v>410</v>
       </c>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -14756,7 +14756,7 @@
         <v>406</v>
       </c>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -14908,7 +14908,7 @@
         <v>437</v>
       </c>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -15048,7 +15048,7 @@
         <v>406</v>
       </c>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -15480,7 +15480,7 @@
         <v>438</v>
       </c>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -15618,7 +15618,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -15768,7 +15768,7 @@
         <v>439</v>
       </c>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -16018,7 +16018,7 @@
         <v>410</v>
       </c>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -16158,7 +16158,7 @@
         <v>406</v>
       </c>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -16306,7 +16306,7 @@
         <v>410</v>
       </c>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -16498,7 +16498,7 @@
         <v>410</v>
       </c>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -16748,7 +16748,7 @@
         <v>433</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -17074,7 +17074,7 @@
         <v>441</v>
       </c>
       <c r="L284" s="4"/>
-      <c r="M284" s="2" t="s">
+      <c r="M284" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N284" s="2" t="s">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -17364,7 +17364,7 @@
         <v>406</v>
       </c>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -17570,7 +17570,7 @@
         <v>410</v>
       </c>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -17714,7 +17714,7 @@
         <v>406</v>
       </c>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -17812,7 +17812,7 @@
         <v>410</v>
       </c>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -17956,7 +17956,7 @@
         <v>406</v>
       </c>
       <c r="L302" s="4"/>
-      <c r="M302" s="2" t="s">
+      <c r="M302" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N302" s="2" t="s">
@@ -18108,7 +18108,7 @@
         <v>433</v>
       </c>
       <c r="L305" s="4"/>
-      <c r="M305" s="2" t="s">
+      <c r="M305" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N305" s="2" t="s">
@@ -18248,7 +18248,7 @@
         <v>406</v>
       </c>
       <c r="L308" s="4"/>
-      <c r="M308" s="2" t="s">
+      <c r="M308" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N308" s="2" t="s">
@@ -18448,7 +18448,7 @@
       </c>
       <c r="K312" s="2"/>
       <c r="L312" s="4"/>
-      <c r="M312" s="2" t="s">
+      <c r="M312" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N312" s="2" t="s">
@@ -18684,7 +18684,7 @@
         <v>443</v>
       </c>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -18822,7 +18822,7 @@
       </c>
       <c r="K320" s="2"/>
       <c r="L320" s="4"/>
-      <c r="M320" s="2" t="s">
+      <c r="M320" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N320" s="2" t="s">
@@ -18972,7 +18972,7 @@
         <v>410</v>
       </c>
       <c r="L323" s="4"/>
-      <c r="M323" s="2" t="s">
+      <c r="M323" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N323" s="2" t="s">
@@ -19380,7 +19380,7 @@
         <v>433</v>
       </c>
       <c r="L331" s="4"/>
-      <c r="M331" s="2" t="s">
+      <c r="M331" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N331" s="2" t="s">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="K334" s="2"/>
       <c r="L334" s="4"/>
-      <c r="M334" s="2" t="s">
+      <c r="M334" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N334" s="2" t="s">
@@ -19914,7 +19914,7 @@
         <v>446</v>
       </c>
       <c r="L342" s="4"/>
-      <c r="M342" s="2" t="s">
+      <c r="M342" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N342" s="2" t="s">
@@ -20052,7 +20052,7 @@
       </c>
       <c r="K345" s="2"/>
       <c r="L345" s="4"/>
-      <c r="M345" s="2" t="s">
+      <c r="M345" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N345" s="2" t="s">
@@ -20202,7 +20202,7 @@
         <v>410</v>
       </c>
       <c r="L348" s="4"/>
-      <c r="M348" s="2" t="s">
+      <c r="M348" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N348" s="2" t="s">
@@ -20436,7 +20436,7 @@
         <v>410</v>
       </c>
       <c r="L353" s="4"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N353" s="2" t="s">
@@ -20840,7 +20840,7 @@
         <v>410</v>
       </c>
       <c r="L361" s="4"/>
-      <c r="M361" s="2" t="s">
+      <c r="M361" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N361" s="2" t="s">
@@ -21248,7 +21248,7 @@
         <v>433</v>
       </c>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="K372" s="2"/>
       <c r="L372" s="4"/>
-      <c r="M372" s="2" t="s">
+      <c r="M372" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N372" s="2" t="s">
@@ -21616,7 +21616,7 @@
         <v>410</v>
       </c>
       <c r="L377" s="4"/>
-      <c r="M377" s="2" t="s">
+      <c r="M377" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N377" s="2" t="s">
@@ -22018,7 +22018,7 @@
       </c>
       <c r="K385" s="2"/>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -22424,7 +22424,7 @@
         <v>448</v>
       </c>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -22562,7 +22562,7 @@
       </c>
       <c r="K396" s="2"/>
       <c r="L396" s="4"/>
-      <c r="M396" s="2" t="s">
+      <c r="M396" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N396" s="2" t="s">
@@ -22712,7 +22712,7 @@
         <v>410</v>
       </c>
       <c r="L399" s="4"/>
-      <c r="M399" s="2" t="s">
+      <c r="M399" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N399" s="2" t="s">
@@ -22950,7 +22950,7 @@
         <v>433</v>
       </c>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -23086,7 +23086,7 @@
       </c>
       <c r="K407" s="2"/>
       <c r="L407" s="4"/>
-      <c r="M407" s="2" t="s">
+      <c r="M407" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N407" s="2" t="s">
@@ -23316,7 +23316,7 @@
       </c>
       <c r="K412" s="2"/>
       <c r="L412" s="4"/>
-      <c r="M412" s="2" t="s">
+      <c r="M412" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N412" s="2"/>
